--- a/templates/Classes and Subs.xlsx
+++ b/templates/Classes and Subs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>CLASS</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Revived</t>
+  </si>
+  <si>
+    <t>Madness Domain</t>
   </si>
 </sst>
 </file>
@@ -842,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,521 +1037,526 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>17</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>18</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>19</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>20</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>136</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>21</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>22</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>23</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>124</v>
       </c>
     </row>
